--- a/conf-core/src/test/resources/dataloader/devices-fail-update.test.xlsx
+++ b/conf-core/src/test/resources/dataloader/devices-fail-update.test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>UPDATE DEVICE</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>VOLTAGE</t>
-  </si>
-  <si>
-    <t>BPM2-02</t>
   </si>
   <si>
     <t>Help</t>
@@ -294,6 +291,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,8 +308,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -592,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,8 +613,8 @@
         <v>8</v>
       </c>
       <c r="E1">
-        <f>COUNTIF(C11:C65537,"*")</f>
-        <v>6</v>
+        <f>COUNTIF(C11:C65536,"*")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.95" customHeight="1">
@@ -631,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <f>SUMPRODUCT((D11:D65537&lt;&gt;"")/COUNTIF(D11:D65537,D11:D65537&amp;""))</f>
+        <f>SUMPRODUCT((D11:D65536&lt;&gt;"")/COUNTIF(D11:D65536,D11:D65536&amp;""))</f>
         <v>2</v>
       </c>
     </row>
@@ -646,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A11:A65537,"CREATE DEVICE")</f>
+        <f>COUNTIF(A11:A65536,"CREATE DEVICE")</f>
         <v>0</v>
       </c>
     </row>
@@ -661,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A11:A65537,"UPDATE DEVICE")+COUNTIF(A11:A65537,"UPDATE PROPERTY")</f>
+        <f>COUNTIF(A11:A65536,"UPDATE DEVICE")+COUNTIF(A11:A65536,"UPDATE PROPERTY")</f>
         <v>2</v>
       </c>
     </row>
@@ -676,8 +673,8 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A11:A65537,"DELETE DEVICE")+COUNTIF(A11:A65537,"DELETE PROPERTY")</f>
-        <v>5</v>
+        <f>COUNTIF(A11:A65536,"DELETE DEVICE")+COUNTIF(A11:A65536,"DELETE PROPERTY")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.95" customHeight="1">
@@ -689,31 +686,31 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1">
       <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -781,33 +778,25 @@
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
+      <c r="B15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
+      <c r="A16" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="21.95" customHeight="1"/>
+    <row r="17" spans="1:1" ht="21.95" customHeight="1">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" ht="21.95" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="3">
@@ -817,7 +806,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A9:B9 D9:E9 A10:E10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:A1048576">
       <formula1>"CREATE DEVICE,UPDATE DEVICE,DELETE DEVICE,UPDATE PROPERTY,DELETE PROPERTY"</formula1>
     </dataValidation>
   </dataValidations>
